--- a/Files/Excel/Jaguar.xlsx
+++ b/Files/Excel/Jaguar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C9666-9370-4A4C-91CD-3174ADF1F7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F34DA9-49F9-4A79-AAC0-0E2C916EA55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,96 +20,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Jaguar 420</t>
-  </si>
-  <si>
-    <t>Jaguar C-X75</t>
-  </si>
-  <si>
-    <t>Jaguar C-XF</t>
-  </si>
-  <si>
-    <t>Jaguar E-Type</t>
-  </si>
-  <si>
-    <t>Jaguar F-Pace</t>
-  </si>
-  <si>
-    <t>Jaguar F-Type SVR</t>
-  </si>
-  <si>
-    <t>Jaguar I-Pace</t>
-  </si>
-  <si>
-    <t>Jaguar Mark 1</t>
-  </si>
-  <si>
-    <t>Jaguar Mark 2</t>
-  </si>
-  <si>
-    <t>Jaguar Mark IV</t>
-  </si>
-  <si>
-    <t>Jaguar Mark IX</t>
-  </si>
-  <si>
-    <t>Jaguar Mark V</t>
-  </si>
-  <si>
-    <t>Jaguar Mark VII</t>
-  </si>
-  <si>
-    <t>Jaguar Mark VIII</t>
-  </si>
-  <si>
-    <t>Jaguar Mark X</t>
-  </si>
-  <si>
-    <t>Jaguar S-Type (1963)</t>
-  </si>
-  <si>
-    <t>Jaguar S-Type (1999)</t>
-  </si>
-  <si>
-    <t>Jaguar X-Type</t>
-  </si>
-  <si>
-    <t>Jaguar XE</t>
-  </si>
-  <si>
-    <t>Jaguar XF</t>
-  </si>
-  <si>
-    <t>Jaguar XJ</t>
-  </si>
-  <si>
-    <t>Jaguar XJ220</t>
-  </si>
-  <si>
-    <t>Jaguar XJR-9</t>
-  </si>
-  <si>
-    <t>Jaguar XJR-12</t>
-  </si>
-  <si>
-    <t>Jaguar XJR-14</t>
-  </si>
-  <si>
-    <t>Jaguar XJS</t>
-  </si>
-  <si>
-    <t>Jaguar XK</t>
-  </si>
-  <si>
-    <t>Jaguar XK120</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>C-X</t>
+  </si>
+  <si>
+    <t>C-XF</t>
+  </si>
+  <si>
+    <t>E-Type</t>
+  </si>
+  <si>
+    <t>F-Pace</t>
+  </si>
+  <si>
+    <t>I-Pace</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Mark IV</t>
+  </si>
+  <si>
+    <t>Mark IX</t>
+  </si>
+  <si>
+    <t>Mark V</t>
+  </si>
+  <si>
+    <t>Mark VII</t>
+  </si>
+  <si>
+    <t>Mark VIII</t>
+  </si>
+  <si>
+    <t>Mark X</t>
+  </si>
+  <si>
+    <t>X-Type</t>
+  </si>
+  <si>
+    <t>F-Type SVR</t>
+  </si>
+  <si>
+    <t>S-Type</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>XF</t>
+  </si>
+  <si>
+    <t>XJ</t>
+  </si>
+  <si>
+    <t>XJR-</t>
+  </si>
+  <si>
+    <t>XJS</t>
+  </si>
+  <si>
+    <t>XK</t>
   </si>
 </sst>
 </file>
@@ -472,250 +457,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B29"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>220</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>120</v>
       </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>